--- a/Table/Table_xls/t通用配置表.xlsx
+++ b/Table/Table_xls/t通用配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table_xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA54C9-85BF-4AF0-AE2E-6656C6F51BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,97 +14,91 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 某个功能需要的参数比较多时可以预留多一些ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 服务器只读此列，服务器需要使用时填写</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 客户端只读此列，客户端需要使用时填写</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 策划备注</t>
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 服务器用的是毫秒，客户端是秒</t>
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 服务器用的是毫秒，客户端是秒</t>
         </r>
       </text>
@@ -120,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
   <si>
     <t>id</t>
   </si>
@@ -321,7 +309,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会领地地图</t>
@@ -330,7 +317,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -340,7 +327,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会一键申请</t>
@@ -349,7 +335,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>CD</t>
     </r>
@@ -357,7 +343,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时间</t>
@@ -428,7 +413,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>50</t>
     </r>
@@ -436,7 +421,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级学徒自动转为成员</t>
@@ -447,7 +431,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>禁言自动解除时间</t>
@@ -456,7 +439,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>120</t>
     </r>
@@ -464,7 +447,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分钟</t>
@@ -535,7 +517,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1v1</t>
     </r>
@@ -543,7 +525,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -554,7 +535,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3v3</t>
     </r>
@@ -562,7 +543,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -573,7 +553,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5v5</t>
     </r>
@@ -581,7 +561,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竞技场匹配间隔时间</t>
@@ -592,7 +571,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>答题中回答正确</t>
@@ -601,7 +579,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>X</t>
     </r>
@@ -609,7 +587,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个问题</t>
@@ -644,7 +621,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会资金少于1000</t>
@@ -653,7 +629,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>W</t>
     </r>
@@ -661,7 +637,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，三倍产药失效</t>
@@ -672,7 +647,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会资金少于800</t>
@@ -681,7 +655,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>W</t>
     </r>
@@ -689,7 +663,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，双倍产药失效</t>
@@ -736,7 +709,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>满50级学徒满足</t>
@@ -745,7 +717,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>150</t>
     </r>
@@ -753,7 +725,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贡献自动转成员</t>
@@ -764,7 +735,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>满50级学徒满足</t>
@@ -773,7 +743,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>150</t>
     </r>
@@ -781,7 +751,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贡献入会48小时自动转成员</t>
@@ -825,7 +794,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>氪金宝箱</t>
@@ -834,7 +802,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -844,7 +812,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>瑟银宝箱</t>
@@ -853,7 +820,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -935,7 +902,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会副本最大</t>
@@ -944,7 +910,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -990,7 +956,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -998,7 +964,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>背包格数上限</t>
@@ -1009,7 +974,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -1017,7 +982,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>仓库格数上限</t>
@@ -1094,7 +1058,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -1102,7 +1066,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>经验道具</t>
@@ -1111,7 +1074,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -1178,7 +1141,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费服</t>
@@ -1187,7 +1149,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>QQ</t>
     </r>
@@ -1195,7 +1157,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼包超链接</t>
@@ -1257,7 +1218,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会战加积分每</t>
@@ -1266,7 +1226,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1274,7 +1234,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分钟</t>
@@ -1291,7 +1250,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公会战</t>
@@ -1300,7 +1258,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>50</t>
     </r>
@@ -1308,7 +1266,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级以上至少</t>
@@ -1317,7 +1274,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>30</t>
     </r>
@@ -1325,7 +1282,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人</t>
@@ -1432,7 +1388,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>手机绑定获取验证码</t>
@@ -1441,7 +1396,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>CD(</t>
     </r>
@@ -1449,7 +1404,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秒</t>
@@ -1458,7 +1412,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1474,7 +1428,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>装备最低价格</t>
@@ -1483,7 +1436,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>101</t>
     </r>
@@ -1550,13 +1503,25 @@
   </si>
   <si>
     <t>节日签到领奖等级</t>
+  </si>
+  <si>
+    <t>洗练需要的金币</t>
+  </si>
+  <si>
+    <t>点化需要的金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1565,13 +1530,11 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1579,41 +1542,158 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,7 +1726,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1876,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,12 +1929,95 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1692,66 +2035,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1762,64 +2258,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="差 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+  <cellStyles count="66">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="常规 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 2 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 2 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 3" xfId="17" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="常规 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="常规 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="常规 6" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="适中" xfId="6" builtinId="28"/>
-    <cellStyle name="注释 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="注释 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="14"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="常规 2 5" xfId="19"/>
+    <cellStyle name="常规 3 2 2" xfId="20"/>
+    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
+    <cellStyle name="注释 2" xfId="22"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="24" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
+    <cellStyle name="输出" xfId="28" builtinId="21"/>
+    <cellStyle name="计算" xfId="29" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="44"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="55" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="56" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="58"/>
+    <cellStyle name="差 2" xfId="59"/>
+    <cellStyle name="常规 4" xfId="60"/>
+    <cellStyle name="常规 2" xfId="61"/>
+    <cellStyle name="常规 2 4" xfId="62"/>
+    <cellStyle name="常规 3" xfId="63"/>
+    <cellStyle name="常规 5" xfId="64"/>
+    <cellStyle name="注释 3" xfId="65"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2151,24 +2684,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C313" sqref="C313"/>
+      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="57" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2193,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>101</v>
       </c>
@@ -2207,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>102</v>
       </c>
@@ -2221,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>103</v>
       </c>
@@ -2235,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>104</v>
       </c>
@@ -2249,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2263,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2277,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>107</v>
       </c>
@@ -2291,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>108</v>
       </c>
@@ -2305,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>109</v>
       </c>
@@ -2316,7 +2851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>110</v>
       </c>
@@ -2330,7 +2865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>111</v>
       </c>
@@ -2341,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>120</v>
       </c>
@@ -2355,7 +2890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>121</v>
       </c>
@@ -2369,7 +2904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2383,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>131</v>
       </c>
@@ -2397,7 +2932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>132</v>
       </c>
@@ -2411,7 +2946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>133</v>
       </c>
@@ -2422,7 +2957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>134</v>
       </c>
@@ -2433,7 +2968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>135</v>
       </c>
@@ -2444,7 +2979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>140</v>
       </c>
@@ -2455,7 +2990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>141</v>
       </c>
@@ -2466,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>142</v>
       </c>
@@ -2480,7 +3015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>143</v>
       </c>
@@ -2494,7 +3029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>144</v>
       </c>
@@ -2508,7 +3043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>145</v>
       </c>
@@ -2522,7 +3057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>146</v>
       </c>
@@ -2533,7 +3068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>147</v>
       </c>
@@ -2544,7 +3079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>148</v>
       </c>
@@ -2555,7 +3090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>149</v>
       </c>
@@ -2566,7 +3101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>150</v>
       </c>
@@ -2577,7 +3112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>151</v>
       </c>
@@ -2588,7 +3123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>152</v>
       </c>
@@ -2599,7 +3134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>153</v>
       </c>
@@ -2610,7 +3145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>154</v>
       </c>
@@ -2621,7 +3156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>155</v>
       </c>
@@ -2632,7 +3167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>156</v>
       </c>
@@ -2643,7 +3178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>157</v>
       </c>
@@ -2654,7 +3189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>158</v>
       </c>
@@ -2665,7 +3200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>159</v>
       </c>
@@ -2676,7 +3211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>160</v>
       </c>
@@ -2690,7 +3225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>161</v>
       </c>
@@ -2704,7 +3239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>162</v>
       </c>
@@ -2718,7 +3253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>163</v>
       </c>
@@ -2732,7 +3267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>164</v>
       </c>
@@ -2743,7 +3278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>165</v>
       </c>
@@ -2757,7 +3292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>166</v>
       </c>
@@ -2771,7 +3306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>167</v>
       </c>
@@ -2782,7 +3317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>168</v>
       </c>
@@ -2793,7 +3328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>169</v>
       </c>
@@ -2804,7 +3339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="6">
         <v>170</v>
       </c>
@@ -2816,7 +3351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="8">
         <v>171</v>
       </c>
@@ -2830,7 +3365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="8">
         <v>172</v>
       </c>
@@ -2841,7 +3376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="8">
         <v>173</v>
       </c>
@@ -2855,7 +3390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="8">
         <v>174</v>
       </c>
@@ -2869,7 +3404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="8">
         <v>175</v>
       </c>
@@ -2880,7 +3415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="8">
         <v>176</v>
       </c>
@@ -2891,7 +3426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="8">
         <v>177</v>
       </c>
@@ -2902,7 +3437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="8">
         <v>178</v>
       </c>
@@ -2913,7 +3448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="8">
         <v>179</v>
       </c>
@@ -2924,7 +3459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="8">
         <v>180</v>
       </c>
@@ -2935,7 +3470,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="8">
         <v>181</v>
       </c>
@@ -2949,7 +3484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="8">
         <v>182</v>
       </c>
@@ -2963,7 +3498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="8">
         <v>190</v>
       </c>
@@ -2974,7 +3509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="8">
         <v>191</v>
       </c>
@@ -2985,7 +3520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="8">
         <v>192</v>
       </c>
@@ -2996,7 +3531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="8">
         <v>193</v>
       </c>
@@ -3007,7 +3542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="8">
         <v>194</v>
       </c>
@@ -3018,7 +3553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="8">
         <v>195</v>
       </c>
@@ -3029,7 +3564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="8">
         <v>196</v>
       </c>
@@ -3040,7 +3575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="8">
         <v>197</v>
       </c>
@@ -3051,7 +3586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="8">
         <v>198</v>
       </c>
@@ -3062,7 +3597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="8">
         <v>199</v>
       </c>
@@ -3073,7 +3608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="8">
         <v>200</v>
       </c>
@@ -3087,7 +3622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="8">
         <v>201</v>
       </c>
@@ -3101,7 +3636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="8">
         <v>202</v>
       </c>
@@ -3115,7 +3650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="8">
         <v>203</v>
       </c>
@@ -3129,7 +3664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="8">
         <v>204</v>
       </c>
@@ -3140,7 +3675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>205</v>
       </c>
@@ -3154,7 +3689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>206</v>
       </c>
@@ -3165,7 +3700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>207</v>
       </c>
@@ -3179,7 +3714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>208</v>
       </c>
@@ -3190,7 +3725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>209</v>
       </c>
@@ -3201,7 +3736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>210</v>
       </c>
@@ -3215,7 +3750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>211</v>
       </c>
@@ -3229,7 +3764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>212</v>
       </c>
@@ -3243,7 +3778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" s="1" customFormat="1" spans="1:4">
       <c r="A88" s="1">
         <v>213</v>
       </c>
@@ -3257,7 +3792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>214</v>
       </c>
@@ -3271,7 +3806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>215</v>
       </c>
@@ -3282,7 +3817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>216</v>
       </c>
@@ -3293,7 +3828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>217</v>
       </c>
@@ -3304,7 +3839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>218</v>
       </c>
@@ -3315,7 +3850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>219</v>
       </c>
@@ -3326,7 +3861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>220</v>
       </c>
@@ -3337,7 +3872,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>221</v>
       </c>
@@ -3348,7 +3883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="13.5" spans="1:5">
       <c r="A97">
         <v>222</v>
       </c>
@@ -3361,7 +3896,7 @@
       </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>223</v>
       </c>
@@ -3373,7 +3908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>224</v>
       </c>
@@ -3384,7 +3919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>225</v>
       </c>
@@ -3395,7 +3930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>226</v>
       </c>
@@ -3409,7 +3944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>227</v>
       </c>
@@ -3423,7 +3958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>228</v>
       </c>
@@ -3437,7 +3972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>229</v>
       </c>
@@ -3448,7 +3983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>230</v>
       </c>
@@ -3459,7 +3994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>231</v>
       </c>
@@ -3470,7 +4005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>232</v>
       </c>
@@ -3484,7 +4019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>233</v>
       </c>
@@ -3498,7 +4033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>234</v>
       </c>
@@ -3512,7 +4047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>235</v>
       </c>
@@ -3523,7 +4058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>236</v>
       </c>
@@ -3535,7 +4070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>237</v>
       </c>
@@ -3546,7 +4081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>238</v>
       </c>
@@ -3560,7 +4095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>239</v>
       </c>
@@ -3574,7 +4109,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="115" ht="13.5" spans="1:4">
       <c r="A115">
         <v>240</v>
       </c>
@@ -3586,7 +4121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>241</v>
       </c>
@@ -3597,7 +4132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>242</v>
       </c>
@@ -3608,7 +4143,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>243</v>
       </c>
@@ -3619,7 +4154,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>244</v>
       </c>
@@ -3630,7 +4165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>245</v>
       </c>
@@ -3641,7 +4176,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>246</v>
       </c>
@@ -3652,7 +4187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>247</v>
       </c>
@@ -3663,7 +4198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>250</v>
       </c>
@@ -3675,7 +4210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>251</v>
       </c>
@@ -3687,7 +4222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>252</v>
       </c>
@@ -3699,7 +4234,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>253</v>
       </c>
@@ -3711,7 +4246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>254</v>
       </c>
@@ -3723,7 +4258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>255</v>
       </c>
@@ -3735,7 +4270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>256</v>
       </c>
@@ -3747,7 +4282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>257</v>
       </c>
@@ -3759,7 +4294,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>258</v>
       </c>
@@ -3771,7 +4306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="132" ht="13.5" spans="1:4">
       <c r="A132">
         <v>261</v>
       </c>
@@ -3783,7 +4318,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>262</v>
       </c>
@@ -3797,7 +4332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>263</v>
       </c>
@@ -3811,7 +4346,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>264</v>
       </c>
@@ -3822,7 +4357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>265</v>
       </c>
@@ -3836,7 +4371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>266</v>
       </c>
@@ -3850,7 +4385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>267</v>
       </c>
@@ -3861,7 +4396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>268</v>
       </c>
@@ -3872,7 +4407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>269</v>
       </c>
@@ -3883,7 +4418,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>270</v>
       </c>
@@ -3897,7 +4432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>271</v>
       </c>
@@ -3911,7 +4446,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>272</v>
       </c>
@@ -3925,7 +4460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>273</v>
       </c>
@@ -3939,7 +4474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>274</v>
       </c>
@@ -3950,7 +4485,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="2">
         <v>275</v>
       </c>
@@ -3961,7 +4496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="2">
         <v>276</v>
       </c>
@@ -3972,7 +4507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="2">
         <v>277</v>
       </c>
@@ -3983,7 +4518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="2">
         <v>278</v>
       </c>
@@ -3994,7 +4529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="2">
         <v>279</v>
       </c>
@@ -4005,7 +4540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="2">
         <v>280</v>
       </c>
@@ -4016,7 +4551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="2">
         <v>281</v>
       </c>
@@ -4027,7 +4562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>282</v>
       </c>
@@ -4038,7 +4573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>283</v>
       </c>
@@ -4049,7 +4584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>284</v>
       </c>
@@ -4060,7 +4595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>285</v>
       </c>
@@ -4071,7 +4606,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>286</v>
       </c>
@@ -4085,7 +4620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>287</v>
       </c>
@@ -4099,7 +4634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>288</v>
       </c>
@@ -4113,7 +4648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>289</v>
       </c>
@@ -4127,7 +4662,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>290</v>
       </c>
@@ -4141,7 +4676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>291</v>
       </c>
@@ -4152,7 +4687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>292</v>
       </c>
@@ -4163,7 +4698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>293</v>
       </c>
@@ -4174,7 +4709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>294</v>
       </c>
@@ -4185,7 +4720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>295</v>
       </c>
@@ -4196,7 +4731,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>296</v>
       </c>
@@ -4210,7 +4745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>297</v>
       </c>
@@ -4224,7 +4759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>298</v>
       </c>
@@ -4235,7 +4770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>299</v>
       </c>
@@ -4246,7 +4781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>300</v>
       </c>
@@ -4257,7 +4792,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>301</v>
       </c>
@@ -4268,7 +4803,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>302</v>
       </c>
@@ -4279,7 +4814,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>303</v>
       </c>
@@ -4290,7 +4825,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>304</v>
       </c>
@@ -4301,7 +4836,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>305</v>
       </c>
@@ -4312,7 +4847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>306</v>
       </c>
@@ -4323,7 +4858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>307</v>
       </c>
@@ -4334,7 +4869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>308</v>
       </c>
@@ -4345,7 +4880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>309</v>
       </c>
@@ -4359,7 +4894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>310</v>
       </c>
@@ -4370,7 +4905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>311</v>
       </c>
@@ -4381,7 +4916,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>312</v>
       </c>
@@ -4392,7 +4927,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>313</v>
       </c>
@@ -4403,7 +4938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>314</v>
       </c>
@@ -4414,7 +4949,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>315</v>
       </c>
@@ -4425,7 +4960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>316</v>
       </c>
@@ -4436,7 +4971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>317</v>
       </c>
@@ -4447,7 +4982,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>318</v>
       </c>
@@ -4458,7 +4993,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>319</v>
       </c>
@@ -4472,7 +5007,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>320</v>
       </c>
@@ -4483,7 +5018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>321</v>
       </c>
@@ -4497,7 +5032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>322</v>
       </c>
@@ -4511,7 +5046,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>323</v>
       </c>
@@ -4522,7 +5057,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>324</v>
       </c>
@@ -4533,7 +5068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>325</v>
       </c>
@@ -4544,7 +5079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>326</v>
       </c>
@@ -4555,7 +5090,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>327</v>
       </c>
@@ -4566,7 +5101,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>328</v>
       </c>
@@ -4577,7 +5112,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>329</v>
       </c>
@@ -4588,7 +5123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>330</v>
       </c>
@@ -4602,7 +5137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>331</v>
       </c>
@@ -4616,7 +5151,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>332</v>
       </c>
@@ -4627,7 +5162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>333</v>
       </c>
@@ -4638,7 +5173,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>334</v>
       </c>
@@ -4649,7 +5184,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>335</v>
       </c>
@@ -4663,7 +5198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>336</v>
       </c>
@@ -4674,7 +5209,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>337</v>
       </c>
@@ -4688,7 +5223,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>338</v>
       </c>
@@ -4699,7 +5234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>339</v>
       </c>
@@ -4710,7 +5245,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>340</v>
       </c>
@@ -4721,7 +5256,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>341</v>
       </c>
@@ -4735,7 +5270,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>342</v>
       </c>
@@ -4746,7 +5281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>343</v>
       </c>
@@ -4757,7 +5292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>344</v>
       </c>
@@ -4768,7 +5303,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>345</v>
       </c>
@@ -4779,7 +5314,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>346</v>
       </c>
@@ -4790,7 +5325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>347</v>
       </c>
@@ -4801,7 +5336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>348</v>
       </c>
@@ -4812,7 +5347,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>349</v>
       </c>
@@ -4823,7 +5358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>350</v>
       </c>
@@ -4834,7 +5369,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>351</v>
       </c>
@@ -4848,7 +5383,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>352</v>
       </c>
@@ -4859,7 +5394,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>355</v>
       </c>
@@ -4873,7 +5408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>356</v>
       </c>
@@ -4887,7 +5422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>357</v>
       </c>
@@ -4901,7 +5436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>358</v>
       </c>
@@ -4915,7 +5450,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>359</v>
       </c>
@@ -4929,7 +5464,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>360</v>
       </c>
@@ -4943,7 +5478,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>361</v>
       </c>
@@ -4957,7 +5492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>362</v>
       </c>
@@ -4971,7 +5506,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>363</v>
       </c>
@@ -4985,7 +5520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>364</v>
       </c>
@@ -4999,7 +5534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>365</v>
       </c>
@@ -5014,7 +5549,7 @@
       </c>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>366</v>
       </c>
@@ -5027,7 +5562,7 @@
       </c>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>367</v>
       </c>
@@ -5038,7 +5573,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>368</v>
       </c>
@@ -5049,7 +5584,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>400</v>
       </c>
@@ -5063,7 +5598,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>401</v>
       </c>
@@ -5077,7 +5612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>402</v>
       </c>
@@ -5091,7 +5626,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>403</v>
       </c>
@@ -5105,7 +5640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>404</v>
       </c>
@@ -5119,7 +5654,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>405</v>
       </c>
@@ -5133,7 +5668,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>406</v>
       </c>
@@ -5147,7 +5682,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>407</v>
       </c>
@@ -5161,7 +5696,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>408</v>
       </c>
@@ -5175,7 +5710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>409</v>
       </c>
@@ -5189,7 +5724,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>410</v>
       </c>
@@ -5203,7 +5738,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>411</v>
       </c>
@@ -5217,7 +5752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>412</v>
       </c>
@@ -5231,7 +5766,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>413</v>
       </c>
@@ -5245,7 +5780,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>414</v>
       </c>
@@ -5259,7 +5794,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>415</v>
       </c>
@@ -5273,7 +5808,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>416</v>
       </c>
@@ -5287,7 +5822,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>417</v>
       </c>
@@ -5301,7 +5836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>418</v>
       </c>
@@ -5315,7 +5850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>419</v>
       </c>
@@ -5329,7 +5864,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>420</v>
       </c>
@@ -5343,7 +5878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>421</v>
       </c>
@@ -5357,7 +5892,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>422</v>
       </c>
@@ -5371,7 +5906,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>423</v>
       </c>
@@ -5385,7 +5920,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>424</v>
       </c>
@@ -5399,7 +5934,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>425</v>
       </c>
@@ -5410,7 +5945,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>426</v>
       </c>
@@ -5421,7 +5956,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>427</v>
       </c>
@@ -5435,7 +5970,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>428</v>
       </c>
@@ -5449,7 +5984,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>429</v>
       </c>
@@ -5460,7 +5995,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>430</v>
       </c>
@@ -5469,7 +6004,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>431</v>
       </c>
@@ -5480,7 +6015,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>432</v>
       </c>
@@ -5491,7 +6026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271">
         <v>433</v>
       </c>
@@ -5505,7 +6040,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272">
         <v>434</v>
       </c>
@@ -5519,7 +6054,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273">
         <v>435</v>
       </c>
@@ -5530,7 +6065,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>436</v>
       </c>
@@ -5544,7 +6079,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>437</v>
       </c>
@@ -5555,7 +6090,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>438</v>
       </c>
@@ -5569,7 +6104,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>439</v>
       </c>
@@ -5583,7 +6118,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>440</v>
       </c>
@@ -5597,7 +6132,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279">
         <v>441</v>
       </c>
@@ -5611,7 +6146,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280">
         <v>442</v>
       </c>
@@ -5625,7 +6160,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281">
         <v>443</v>
       </c>
@@ -5636,7 +6171,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>444</v>
       </c>
@@ -5650,7 +6185,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>445</v>
       </c>
@@ -5661,7 +6196,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>446</v>
       </c>
@@ -5675,7 +6210,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>447</v>
       </c>
@@ -5689,7 +6224,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>448</v>
       </c>
@@ -5703,7 +6238,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>449</v>
       </c>
@@ -5717,7 +6252,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>450</v>
       </c>
@@ -5731,7 +6266,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289">
         <v>451</v>
       </c>
@@ -5742,7 +6277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290">
         <v>452</v>
       </c>
@@ -5756,7 +6291,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>453</v>
       </c>
@@ -5770,7 +6305,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>454</v>
       </c>
@@ -5784,7 +6319,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>455</v>
       </c>
@@ -5798,7 +6333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>456</v>
       </c>
@@ -5809,7 +6344,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>457</v>
       </c>
@@ -5820,7 +6355,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>458</v>
       </c>
@@ -5834,7 +6369,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297">
         <v>459</v>
       </c>
@@ -5848,7 +6383,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="298" ht="13.5" spans="1:4">
       <c r="A298">
         <v>460</v>
       </c>
@@ -5860,7 +6395,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="299" ht="13.5" spans="1:4">
       <c r="A299">
         <v>461</v>
       </c>
@@ -5872,7 +6407,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="300" ht="13.5" spans="1:4">
       <c r="A300">
         <v>462</v>
       </c>
@@ -5884,7 +6419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="301" ht="13.5" spans="1:4">
       <c r="A301">
         <v>463</v>
       </c>
@@ -5896,7 +6431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="302" ht="13.5" spans="1:4">
       <c r="A302">
         <v>464</v>
       </c>
@@ -5908,7 +6443,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="303" ht="13.5" spans="1:4">
       <c r="A303">
         <v>465</v>
       </c>
@@ -5920,7 +6455,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="304" ht="13.5" spans="1:4">
       <c r="A304">
         <v>466</v>
       </c>
@@ -5934,7 +6469,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" s="3" customFormat="1" spans="1:4">
       <c r="A305" s="3">
         <v>467</v>
       </c>
@@ -5948,7 +6483,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="306" ht="13.5" spans="1:4">
       <c r="A306" s="3">
         <v>468</v>
       </c>
@@ -5960,7 +6495,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="307" ht="13.5" spans="1:4">
       <c r="A307" s="3">
         <v>469</v>
       </c>
@@ -5972,7 +6507,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="308" ht="13.5" spans="1:4">
       <c r="A308" s="3">
         <v>470</v>
       </c>
@@ -5984,7 +6519,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="309" ht="13.5" spans="1:4">
       <c r="A309" s="3">
         <v>471</v>
       </c>
@@ -5996,7 +6531,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="310" ht="13.5" spans="1:4">
       <c r="A310" s="3">
         <v>472</v>
       </c>
@@ -6010,44 +6545,43 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" s="3">
         <v>473</v>
       </c>
-      <c r="B311" s="11">
-        <v>1000</v>
+      <c r="B311">
+        <v>1500</v>
       </c>
       <c r="C311">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="3">
         <v>474</v>
       </c>
-      <c r="B312" s="11">
-        <v>1000</v>
+      <c r="B312">
+        <v>1500</v>
       </c>
       <c r="C312">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C268" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C235" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C274" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C268" r:id="rId3" display="http://djsc.locojoy.com"/>
+    <hyperlink ref="C235" r:id="rId4" display="http://m.vip.qq.com/club/act/2016/112126/64edf656ab.html?_wv=1025&amp;_wwv=4"/>
+    <hyperlink ref="C274" r:id="rId4" display="http://m.vip.qq.com/club/act/2016/112126/64edf656ab.html?_wv=1025&amp;_wwv=4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Table/Table_xls/t通用配置表.xlsx
+++ b/Table/Table_xls/t通用配置表.xlsx
@@ -1505,10 +1505,10 @@
     <t>节日签到领奖等级</t>
   </si>
   <si>
-    <t>洗练需要的金币</t>
-  </si>
-  <si>
-    <t>点化需要的金币</t>
+    <t>装备点化金币</t>
+  </si>
+  <si>
+    <t>套装点化金币</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1552,6 +1552,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1573,29 +1595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1605,23 +1604,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,16 +1633,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1664,24 +1670,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1726,13 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,31 +1756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,13 +1774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,13 +1798,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,13 +1888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,73 +1912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,34 +1941,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,17 +1965,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2006,17 +1986,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2058,10 +2058,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2070,166 +2070,175 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2238,16 +2247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2689,11 +2689,11 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B292" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
+      <selection pane="bottomRight" activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6550,10 +6550,10 @@
         <v>473</v>
       </c>
       <c r="B311">
-        <v>1500</v>
+        <v>1000000</v>
       </c>
       <c r="C311">
-        <v>1500</v>
+        <v>1000000</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>310</v>

--- a/Table/Table_xls/t通用配置表.xlsx
+++ b/Table/Table_xls/t通用配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 某个功能需要的参数比较多时可以预留多一些ID</t>
         </r>
       </text>
@@ -38,11 +37,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 服务器只读此列，服务器需要使用时填写</t>
         </r>
       </text>
@@ -52,11 +50,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 客户端只读此列，客户端需要使用时填写</t>
         </r>
       </text>
@@ -66,11 +63,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 策划备注</t>
         </r>
       </text>
@@ -80,11 +76,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 服务器用的是毫秒，客户端是秒</t>
         </r>
       </text>
@@ -94,11 +89,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 服务器用的是毫秒，客户端是秒</t>
         </r>
       </text>
@@ -108,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
   <si>
     <t>id</t>
   </si>
@@ -1517,11 +1511,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1546,9 +1540,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1561,26 +1585,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1589,7 +1608,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1604,31 +1630,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1638,20 +1643,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1671,7 +1666,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,12 +1687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1726,13 +1725,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,103 +1869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,43 +1887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,19 +1905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,33 +1939,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,20 +1965,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,6 +2003,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -2036,17 +2032,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,61 +2054,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2118,118 +2117,118 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2238,7 +2237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2247,7 +2246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2353,6 +2352,11 @@
     <cellStyle name="注释 3" xfId="65"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2679,28 +2683,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D312" sqref="D312"/>
+      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="10.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="10.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="23.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" spans="1:4">
@@ -3883,7 +3886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" ht="13.5" spans="1:5">
+    <row r="97" ht="14.4" spans="1:5">
       <c r="A97">
         <v>222</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" ht="13.5" spans="1:4">
+    <row r="115" ht="14.4" spans="1:4">
       <c r="A115">
         <v>240</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" ht="13.5" spans="1:4">
+    <row r="132" ht="14.4" spans="1:4">
       <c r="A132">
         <v>261</v>
       </c>
@@ -4625,10 +4628,10 @@
         <v>287</v>
       </c>
       <c r="B158">
-        <v>88888</v>
+        <v>66</v>
       </c>
       <c r="C158">
-        <v>88888</v>
+        <v>66</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>153</v>
@@ -5399,10 +5402,10 @@
         <v>355</v>
       </c>
       <c r="B224">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C224">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>219</v>
@@ -5413,10 +5416,10 @@
         <v>356</v>
       </c>
       <c r="B225">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C225">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>220</v>
@@ -5427,10 +5430,10 @@
         <v>357</v>
       </c>
       <c r="B226">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C226">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>221</v>
@@ -6383,7 +6386,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" ht="13.5" spans="1:4">
+    <row r="298" ht="14.4" spans="1:4">
       <c r="A298">
         <v>460</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" ht="13.5" spans="1:4">
+    <row r="299" ht="14.4" spans="1:4">
       <c r="A299">
         <v>461</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" ht="13.5" spans="1:4">
+    <row r="300" ht="14.4" spans="1:4">
       <c r="A300">
         <v>462</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" ht="13.5" spans="1:4">
+    <row r="301" ht="14.4" spans="1:4">
       <c r="A301">
         <v>463</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" ht="13.5" spans="1:4">
+    <row r="302" ht="14.4" spans="1:4">
       <c r="A302">
         <v>464</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" ht="13.5" spans="1:4">
+    <row r="303" ht="14.4" spans="1:4">
       <c r="A303">
         <v>465</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" ht="13.5" spans="1:4">
+    <row r="304" ht="14.4" spans="1:4">
       <c r="A304">
         <v>466</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" ht="13.5" spans="1:4">
+    <row r="306" ht="14.4" spans="1:4">
       <c r="A306" s="3">
         <v>468</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" ht="13.5" spans="1:4">
+    <row r="307" ht="14.4" spans="1:4">
       <c r="A307" s="3">
         <v>469</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" ht="13.5" spans="1:4">
+    <row r="308" ht="14.4" spans="1:4">
       <c r="A308" s="3">
         <v>470</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" ht="13.5" spans="1:4">
+    <row r="309" ht="14.4" spans="1:4">
       <c r="A309" s="3">
         <v>471</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" ht="13.5" spans="1:4">
+    <row r="310" ht="14.4" spans="1:4">
       <c r="A310" s="3">
         <v>472</v>
       </c>

--- a/Table/Table_xls/t通用配置表.xlsx
+++ b/Table/Table_xls/t通用配置表.xlsx
@@ -1510,10 +1510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1540,14 +1540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1555,9 +1548,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1568,24 +1561,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,7 +1613,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,64 +1621,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,6 +1638,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,13 +1725,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,7 +1797,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,37 +1839,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,103 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,7 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,13 +1937,62 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1967,67 +2016,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,7 +2034,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,199 +2054,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2303,8 +2303,8 @@
     <cellStyle name="标题 4" xfId="16" builtinId="19"/>
     <cellStyle name="警告文本" xfId="17" builtinId="11"/>
     <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="常规 2 5" xfId="19"/>
-    <cellStyle name="常规 3 2 2" xfId="20"/>
+    <cellStyle name="常规 3 2 2" xfId="19"/>
+    <cellStyle name="常规 2 5" xfId="20"/>
     <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
     <cellStyle name="注释 2" xfId="22"/>
     <cellStyle name="标题 1" xfId="23" builtinId="16"/>
@@ -2343,8 +2343,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="56" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="58"/>
-    <cellStyle name="差 2" xfId="59"/>
-    <cellStyle name="常规 4" xfId="60"/>
+    <cellStyle name="常规 4" xfId="59"/>
+    <cellStyle name="差 2" xfId="60"/>
     <cellStyle name="常规 2" xfId="61"/>
     <cellStyle name="常规 2 4" xfId="62"/>
     <cellStyle name="常规 3" xfId="63"/>
@@ -2692,11 +2692,11 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomRight" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4504,7 +4504,7 @@
         <v>276</v>
       </c>
       <c r="C147" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>31</v>
